--- a/medicine/Mort/Cimetière_de_Farkasrét/Cimetière_de_Farkasrét.xlsx
+++ b/medicine/Mort/Cimetière_de_Farkasrét/Cimetière_de_Farkasrét.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Farkasr%C3%A9t</t>
+          <t>Cimetière_de_Farkasrét</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Farkasrét (Farkasréti temető, [ˈfɒɾkɒʃɾeːti ˈtɛmɛtøː]) est l'un des plus célèbres cimetières de Budapest, capitale de la Hongrie. Situé à Buda, dans le quartier de Farkasrét, il est ouvert en 1894 et est remarquable pour la vue spectaculaire qu'il offre sur la ville.
 Il comprend de nombreuses tombes de célébrités hongroises, et demeure le lieu d'inhumation préféré des acteurs et autres artistes (chanteurs d'opéra, musiciens, peintres, sculpteurs, architectes, écrivains, poètes). Il contient aussi les sépultures de plusieurs scientifiques, académiciens et sportifs.
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Farkasr%C3%A9t</t>
+          <t>Cimetière_de_Farkasrét</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Liste de personnalités inhumées à Farkasrét</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par ordre alphabétique :
 Vilmos Aba-Novák (1894 - 1941), peintre ;
